--- a/Data desc.xlsx
+++ b/Data desc.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f62de565162642/Documents/MSDS/MSDS-422 ML/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divay Nagpal\Documents\NorthwesternMaterial\MS422\FinalProject\MS422FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{D2427CE4-8DFB-4D4B-8A74-B5C26F48227E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE44DA0-576A-4F4D-AF0D-EC007DC08C98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DB71D-917A-4186-97F7-CF96AE6D2EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1CAED557-5D47-4EEE-98B7-1FB79147490A}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="23253" windowHeight="12459" activeTab="1" xr2:uid="{1CAED557-5D47-4EEE-98B7-1FB79147490A}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns and details" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Test</t>
   </si>
@@ -197,12 +188,6 @@
     <t>This will give idea if any specific Product Family is sold the most</t>
   </si>
   <si>
-    <t>Check for Family vs Date</t>
-  </si>
-  <si>
-    <t>this will give an idea if specific product family is sold more on some dates. This will help us to identify season products.</t>
-  </si>
-  <si>
     <t>Check for Family vs Promotion</t>
   </si>
   <si>
@@ -228,6 +213,18 @@
   </si>
   <si>
     <t>EDA:</t>
+  </si>
+  <si>
+    <t>Check for Family vs Day of week</t>
+  </si>
+  <si>
+    <t>Check for Family vs week number</t>
+  </si>
+  <si>
+    <t>sales vs week of month</t>
+  </si>
+  <si>
+    <t>Sales vs dayofweek</t>
   </si>
 </sst>
 </file>
@@ -269,7 +266,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -331,6 +334,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,7 +662,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="1" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
@@ -792,7 +801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="61.2">
+    <row r="14" spans="1:11" ht="63.9">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -800,7 +809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="214.2">
+    <row r="15" spans="1:11" ht="223.55">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -808,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.799999999999997">
+    <row r="16" spans="1:11" ht="42.6">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -824,13 +833,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA3B7F-ECF0-4DB4-82E4-B12C9A55F19F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.44140625" customWidth="1"/>
@@ -838,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -856,7 +865,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -878,7 +887,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -889,7 +898,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -897,63 +906,83 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
+    <row r="8" spans="1:3">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45.1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="13" spans="1:3" ht="30.05">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="14" spans="1:3" ht="120.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="115.2">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data desc.xlsx
+++ b/Data desc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divay Nagpal\Documents\NorthwesternMaterial\MS422\FinalProject\MS422FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DB71D-917A-4186-97F7-CF96AE6D2EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD1AF9-9FF8-4A95-9444-819D7E6F1982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="23253" windowHeight="12459" activeTab="1" xr2:uid="{1CAED557-5D47-4EEE-98B7-1FB79147490A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Test</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>Sales vs dayofweek</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Divay</t>
+  </si>
+  <si>
+    <t>Monil</t>
+  </si>
+  <si>
+    <t>Sadhana</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>Sales vs Type</t>
+  </si>
+  <si>
+    <t>Finding new ideas</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -319,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -340,6 +364,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA3B7F-ECF0-4DB4-82E4-B12C9A55F19F}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05"/>
@@ -845,23 +872,23 @@
     <col min="3" max="3" width="66.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -872,7 +899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -882,8 +909,11 @@
       <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -894,7 +924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -905,7 +935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -913,8 +943,11 @@
         <v>55</v>
       </c>
       <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -922,8 +955,11 @@
         <v>54</v>
       </c>
       <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -931,8 +967,11 @@
         <v>52</v>
       </c>
       <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -940,8 +979,11 @@
         <v>53</v>
       </c>
       <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -951,8 +993,11 @@
       <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="45.1">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45.1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -962,8 +1007,11 @@
       <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.05">
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.05">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -973,8 +1021,11 @@
       <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120.25">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -983,6 +1034,31 @@
       </c>
       <c r="C14" s="7" t="s">
         <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Data desc.xlsx
+++ b/Data desc.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f62de565162642/Documents/MSDS/MSDS-422 ML/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divay Nagpal\Documents\NorthwesternMaterial\MS422\FinalProject\MS422FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{D2427CE4-8DFB-4D4B-8A74-B5C26F48227E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE44DA0-576A-4F4D-AF0D-EC007DC08C98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD1AF9-9FF8-4A95-9444-819D7E6F1982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1CAED557-5D47-4EEE-98B7-1FB79147490A}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="23253" windowHeight="12459" activeTab="1" xr2:uid="{1CAED557-5D47-4EEE-98B7-1FB79147490A}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns and details" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Test</t>
   </si>
@@ -197,12 +188,6 @@
     <t>This will give idea if any specific Product Family is sold the most</t>
   </si>
   <si>
-    <t>Check for Family vs Date</t>
-  </si>
-  <si>
-    <t>this will give an idea if specific product family is sold more on some dates. This will help us to identify season products.</t>
-  </si>
-  <si>
     <t>Check for Family vs Promotion</t>
   </si>
   <si>
@@ -228,6 +213,42 @@
   </si>
   <si>
     <t>EDA:</t>
+  </si>
+  <si>
+    <t>Check for Family vs Day of week</t>
+  </si>
+  <si>
+    <t>Check for Family vs week number</t>
+  </si>
+  <si>
+    <t>sales vs week of month</t>
+  </si>
+  <si>
+    <t>Sales vs dayofweek</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Divay</t>
+  </si>
+  <si>
+    <t>Monil</t>
+  </si>
+  <si>
+    <t>Sadhana</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>Sales vs Type</t>
+  </si>
+  <si>
+    <t>Finding new ideas</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -269,7 +290,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -331,6 +358,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,7 +689,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="1" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
@@ -792,7 +828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="61.2">
+    <row r="14" spans="1:11" ht="63.9">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -800,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="214.2">
+    <row r="15" spans="1:11" ht="223.55">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -808,7 +844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.799999999999997">
+    <row r="16" spans="1:11" ht="42.6">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -824,46 +860,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA3B7F-ECF0-4DB4-82E4-B12C9A55F19F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -873,87 +909,156 @@
       <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="28.8">
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45.1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.05">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="115.2">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
